--- a/server-res/excel/Cfg_TargetFAM.xlsx
+++ b/server-res/excel/Cfg_TargetFAM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,14 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,6 +258,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -312,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,65 +565,68 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -635,7 +634,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -647,10 +646,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -658,7 +654,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -670,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -678,19 +674,19 @@
         <v>10001</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -698,7 +694,7 @@
         <v>10001</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -718,7 +714,7 @@
         <v>10001</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -738,19 +734,19 @@
         <v>10001</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -758,7 +754,7 @@
         <v>10001</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -778,7 +774,7 @@
         <v>10001</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -798,19 +794,22 @@
         <v>10001</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -818,7 +817,7 @@
         <v>10001</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -830,10 +829,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -841,7 +837,7 @@
         <v>10001</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -853,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -861,13 +857,13 @@
         <v>10001</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -881,7 +877,7 @@
         <v>10001</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -901,7 +897,7 @@
         <v>10001</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -921,19 +917,19 @@
         <v>10001</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -941,7 +937,7 @@
         <v>10001</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -961,7 +957,7 @@
         <v>10001</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -981,10 +977,10 @@
         <v>10001</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -994,6 +990,9 @@
       </c>
       <c r="F21" s="1">
         <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1001,7 +1000,7 @@
         <v>10001</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1013,10 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,7 +1020,7 @@
         <v>10001</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1036,26 +1032,6 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
         <v>2</v>
       </c>
     </row>

--- a/server-res/excel/Cfg_TargetFAM.xlsx
+++ b/server-res/excel/Cfg_TargetFAM.xlsx
@@ -183,7 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memo</t>
+    <t>#memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +555,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/server-res/excel/Cfg_TargetFAM.xlsx
+++ b/server-res/excel/Cfg_TargetFAM.xlsx
@@ -179,11 +179,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idmonster</t>
+    <t>#memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#memo</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,9 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -565,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -583,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -608,7 +606,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -631,7 +629,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -651,7 +649,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -671,7 +669,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -691,7 +689,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -711,7 +709,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -731,7 +729,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -751,7 +749,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -771,7 +769,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -791,7 +789,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -814,7 +812,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -834,7 +832,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -854,7 +852,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -874,7 +872,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -894,7 +892,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -914,7 +912,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -934,7 +932,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -954,7 +952,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -997,7 +995,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1017,7 +1015,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
